--- a/DataBase/Project Database.xlsx
+++ b/DataBase/Project Database.xlsx
@@ -1,43 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af0ff2da4243c3f/Desktop/Share Steer/DataBase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projectCdac\Cdac-Project-Group10\Share-Steer-Ride-Sharing-App\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{254F568F-AB34-4245-A418-02B61F4B8D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0F778-FA24-4559-A194-9A928C926286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A6159D2-3324-4254-BB3B-A738DEB51357}"/>
+    <workbookView xWindow="28680" yWindow="945" windowWidth="20730" windowHeight="11760" xr2:uid="{3A6159D2-3324-4254-BB3B-A738DEB51357}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
-  <si>
-    <t>age(Autogenerated)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Email</t>
   </si>
@@ -60,9 +49,6 @@
     <t>user_name(uniqueId)</t>
   </si>
   <si>
-    <t>Passenger</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -72,15 +58,9 @@
     <t>city</t>
   </si>
   <si>
-    <t>Driver</t>
-  </si>
-  <si>
     <t>rating</t>
   </si>
   <si>
-    <t>Driver_id(Primary Key)</t>
-  </si>
-  <si>
     <t>Passenger_id(Primary Key)</t>
   </si>
   <si>
@@ -157,6 +137,12 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Vehicle Details</t>
   </si>
 </sst>
 </file>
@@ -180,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -212,11 +198,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,7 +235,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993FF97A-B2EE-41F0-969E-88BF8C41B4DF}">
-  <dimension ref="A2:R60"/>
+  <dimension ref="A2:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,70 +588,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -644,13 +658,12 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -659,13 +672,12 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -674,13 +686,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -703,172 +714,146 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="B12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="4" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -886,7 +871,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -904,49 +889,50 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="L20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -954,11 +940,11 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
@@ -966,7 +952,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J21" s="1">
         <v>9</v>
@@ -975,12 +961,15 @@
         <v>4</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -993,12 +982,15 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1011,12 +1003,15 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1029,12 +1024,15 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1047,12 +1045,15 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1065,12 +1066,15 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1083,32 +1087,44 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1152,10 +1168,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">

--- a/DataBase/Project Database.xlsx
+++ b/DataBase/Project Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projectCdac\Cdac-Project-Group10\Share-Steer-Ride-Sharing-App\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0F778-FA24-4559-A194-9A928C926286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116D51A0-FF44-45CB-B175-A3C79ECD4B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="945" windowWidth="20730" windowHeight="11760" xr2:uid="{3A6159D2-3324-4254-BB3B-A738DEB51357}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3A6159D2-3324-4254-BB3B-A738DEB51357}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Email</t>
   </si>
@@ -61,18 +61,12 @@
     <t>rating</t>
   </si>
   <si>
-    <t>Passenger_id(Primary Key)</t>
-  </si>
-  <si>
     <t>driving licence(Unique)</t>
   </si>
   <si>
     <t>Rides</t>
   </si>
   <si>
-    <t>driver_id</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -143,6 +137,9 @@
   </si>
   <si>
     <t>Vehicle Details</t>
+  </si>
+  <si>
+    <t>user id(Primary Key)</t>
   </si>
 </sst>
 </file>
@@ -232,18 +229,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -254,6 +239,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -572,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993FF97A-B2EE-41F0-969E-88BF8C41B4DF}">
   <dimension ref="A2:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F42" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,34 +585,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="A2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -632,8 +629,8 @@
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>24</v>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>1</v>
@@ -658,7 +655,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="4"/>
@@ -672,7 +669,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="4"/>
@@ -686,7 +683,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="4"/>
@@ -714,215 +711,217 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="A10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -940,11 +939,11 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
@@ -952,7 +951,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1">
         <v>9</v>
@@ -1106,16 +1105,16 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -1168,10 +1167,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">

--- a/DataBase/Project Database.xlsx
+++ b/DataBase/Project Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af0ff2da4243c3f/Desktop/Share Steer/Project On git/Share-Steer-Ride-Sharing-App/DataBase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IET\Project\Share-Steer-Ride-Sharing-App\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{116D51A0-FF44-45CB-B175-A3C79ECD4B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23BCDD81-A2AB-4333-BF50-C8360F302CEA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF225B3A-0672-4B7B-A4B6-6B647710618D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A6159D2-3324-4254-BB3B-A738DEB51357}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Email</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Drop Point</t>
+  </si>
+  <si>
+    <t>completed/ going</t>
   </si>
 </sst>
 </file>
@@ -199,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -453,11 +456,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -474,6 +507,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -492,73 +567,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -877,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993FF97A-B2EE-41F0-969E-88BF8C41B4DF}">
   <dimension ref="C1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,23 +952,23 @@
     <col min="11" max="11" width="8.88671875" style="2"/>
     <col min="12" max="12" width="13.109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="11.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" style="2" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="3:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="26" t="s">
@@ -958,212 +1015,210 @@
       <c r="N4" s="34"/>
     </row>
     <row r="5" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="3:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="3:20" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
     </row>
     <row r="8" spans="3:20" ht="54" x14ac:dyDescent="0.3">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="20"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="3:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="20"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="24"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="3:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="12"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="12"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="3:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="12"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="12"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="3:20" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -1172,18 +1227,18 @@
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -1192,18 +1247,18 @@
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="5"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1212,18 +1267,18 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
       <c r="O19" s="5"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1232,98 +1287,98 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="25"/>
     </row>
     <row r="24" spans="3:21" ht="54" x14ac:dyDescent="0.3">
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="10" t="s">
         <v>33</v>
       </c>
       <c r="O24" s="1"/>
@@ -1334,35 +1389,37 @@
       <c r="T24" s="1"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C25" s="17">
+    <row r="25" spans="3:21" ht="36" x14ac:dyDescent="0.3">
+      <c r="C25" s="11">
         <v>1</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="12">
         <v>1</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18">
+      <c r="H25" s="12"/>
+      <c r="I25" s="12">
         <v>300</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18" t="s">
+      <c r="J25" s="12"/>
+      <c r="K25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="12">
         <v>9</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="12">
         <v>4</v>
       </c>
-      <c r="N25" s="20"/>
+      <c r="N25" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1372,18 +1429,18 @@
       <c r="U25" s="3"/>
     </row>
     <row r="26" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="20"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="14"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1393,18 +1450,18 @@
       <c r="U26" s="3"/>
     </row>
     <row r="27" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="20"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="14"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -1414,18 +1471,18 @@
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="20"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="14"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -1435,18 +1492,18 @@
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="20"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="14"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -1456,18 +1513,18 @@
       <c r="U29" s="3"/>
     </row>
     <row r="30" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="20"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="14"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -1477,18 +1534,18 @@
       <c r="U30" s="3"/>
     </row>
     <row r="31" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="24"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="18"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -1498,18 +1555,18 @@
       <c r="U31" s="3"/>
     </row>
     <row r="32" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -1519,18 +1576,18 @@
       <c r="U32" s="3"/>
     </row>
     <row r="33" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -1540,20 +1597,20 @@
       <c r="U33" s="3"/>
     </row>
     <row r="34" spans="3:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -1563,348 +1620,348 @@
       <c r="U34" s="3"/>
     </row>
     <row r="35" spans="3:21" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
     </row>
     <row r="36" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
     </row>
     <row r="37" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="38" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
     </row>
     <row r="39" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
     </row>
     <row r="40" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
     </row>
     <row r="41" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
     </row>
     <row r="42" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
     </row>
     <row r="43" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
     </row>
     <row r="44" spans="3:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
     </row>
     <row r="45" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
     </row>
     <row r="46" spans="3:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
     </row>
     <row r="47" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="9"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-    </row>
-    <row r="48" spans="3:21" ht="36" x14ac:dyDescent="0.3">
-      <c r="C48" s="13" t="s">
+      <c r="C47" s="23"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="3:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="C48" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
     </row>
     <row r="49" spans="3:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="C49" s="17">
+      <c r="C49" s="11">
         <v>1</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="14">
         <v>111</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
     </row>
     <row r="50" spans="3:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="C50" s="17">
+      <c r="C50" s="11">
         <v>1</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="14">
         <v>222</v>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
     </row>
     <row r="51" spans="3:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="C51" s="17"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
     </row>
     <row r="52" spans="3:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="C52" s="17"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
     </row>
     <row r="53" spans="3:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="C53" s="17"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
     </row>
     <row r="54" spans="3:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="C54" s="17"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
     </row>
     <row r="55" spans="3:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="C55" s="17"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
     </row>
     <row r="56" spans="3:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C56" s="21"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
     </row>
     <row r="57" spans="3:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C59" s="3"/>
@@ -1957,13 +2014,17 @@
       <c r="E68" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="C34:F35"/>
     <mergeCell ref="C46:D47"/>
     <mergeCell ref="C2:N4"/>
     <mergeCell ref="C6:N7"/>
     <mergeCell ref="C14:H15"/>
     <mergeCell ref="C22:N23"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
